--- a/dip.xlsx
+++ b/dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeilab\source\repos\SeatStock2022.3.30f1\Assets\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6866E7-2349-44EC-9466-7EB437C2323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CE80D4-391B-4E0C-9CFB-BA6F0C420F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -677,8 +677,8 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" s="1">
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
